--- a/xlsx/洛杉矶_intext.xlsx
+++ b/xlsx/洛杉矶_intext.xlsx
@@ -29,7 +29,7 @@
     <t>加利福尼亚州市镇列表</t>
   </si>
   <si>
-    <t>政策_政策_美國_洛杉矶</t>
+    <t>体育运动_体育运动_1980年夏季奥林匹克运动会_洛杉矶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E5%B8%82%E4%B8%AD%E5%BF%83</t>
@@ -20168,7 +20168,7 @@
         <v>1076</v>
       </c>
       <c r="G558" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H558" t="s">
         <v>4</v>
